--- a/excel/files/menu.xlsx
+++ b/excel/files/menu.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis/data_analysis/excel/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{740024A6-1B65-4017-A754-DBB94AC48CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A2D5C12-9A31-4FBF-B0C9-6AAB5E7D7EE7}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{740024A6-1B65-4017-A754-DBB94AC48CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C05F73-2E6E-4820-90D1-7E57E5B8E23B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50F61F0E-0366-4A0C-BD0F-19332FD87CC5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50F61F0E-0366-4A0C-BD0F-19332FD87CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId2"/>
+    <sheet name="Analysis2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">menu!$A$1:$X$261</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="406">
   <si>
     <t>Category</t>
   </si>
@@ -1251,6 +1252,21 @@
   </si>
   <si>
     <t>Total Percentage</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Calculation/Column</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1282,13 +1298,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,7 +1722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1688,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB51FEE8-A16C-4E78-88FA-FA5B187180BE}">
   <dimension ref="A1:Y261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21840,7 +21884,7 @@
         <v>10</v>
       </c>
       <c r="Y258">
-        <f t="shared" ref="Y258:Y321" si="4">SUM(X258,W258,V258,U258,R258,P258,N258,L258,I258,G258)</f>
+        <f t="shared" ref="Y258:Y261" si="4">SUM(X258,W258,V258,U258,R258,P258,N258,L258,I258,G258)</f>
         <v>248</v>
       </c>
     </row>
@@ -22089,14 +22133,1032 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE09BED9-E9B2-4C7E-8033-B40EBF77FAED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" customWidth="1"/>
+    <col min="21" max="21" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="5">
+        <f>AVERAGE(menu!D:D)</f>
+        <v>368.26923076923077</v>
+      </c>
+      <c r="C2" s="5">
+        <f>AVERAGE(menu!E:E)</f>
+        <v>127.09615384615384</v>
+      </c>
+      <c r="D2" s="5">
+        <f>AVERAGE(menu!F:F)</f>
+        <v>16.346153846153847</v>
+      </c>
+      <c r="E2" s="5">
+        <f>AVERAGE(menu!G:G)</f>
+        <v>21.815384615384616</v>
+      </c>
+      <c r="F2" s="5">
+        <f>AVERAGE(menu!H:H)</f>
+        <v>9.6423076923076927</v>
+      </c>
+      <c r="G2" s="5">
+        <f>AVERAGE(menu!I:I)</f>
+        <v>29.965384615384615</v>
+      </c>
+      <c r="H2" s="5">
+        <f>AVERAGE(menu!J:J)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <f>AVERAGE(menu!K:K)</f>
+        <v>54.942307692307693</v>
+      </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(menu!L:L)</f>
+        <v>18.392307692307693</v>
+      </c>
+      <c r="K2" s="5">
+        <f>AVERAGE(menu!M:M)</f>
+        <v>495.75</v>
+      </c>
+      <c r="L2" s="5">
+        <f>AVERAGE(menu!N:N)</f>
+        <v>20.676923076923078</v>
+      </c>
+      <c r="M2" s="5">
+        <f>AVERAGE(menu!O:O)</f>
+        <v>47.346153846153847</v>
+      </c>
+      <c r="N2" s="5">
+        <f>AVERAGE(menu!P:P)</f>
+        <v>15.780769230769231</v>
+      </c>
+      <c r="O2" s="5">
+        <f>AVERAGE(menu!Q:Q)</f>
+        <v>1.6307692307692307</v>
+      </c>
+      <c r="P2" s="5">
+        <f>AVERAGE(menu!R:R)</f>
+        <v>6.5307692307692307</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>AVERAGE(menu!S:S)</f>
+        <v>29.423076923076923</v>
+      </c>
+      <c r="R2" s="5">
+        <f>AVERAGE(menu!T:T)</f>
+        <v>13.338461538461539</v>
+      </c>
+      <c r="S2" s="5">
+        <f>AVERAGE(menu!U:U)</f>
+        <v>13.426923076923076</v>
+      </c>
+      <c r="T2" s="5">
+        <f>AVERAGE(menu!V:V)</f>
+        <v>8.5346153846153854</v>
+      </c>
+      <c r="U2" s="5">
+        <f>AVERAGE(menu!W:W)</f>
+        <v>20.973076923076924</v>
+      </c>
+      <c r="V2" s="5">
+        <f>AVERAGE(menu!X:X)</f>
+        <v>7.7346153846153847</v>
+      </c>
+      <c r="W2" s="5">
+        <f>AVERAGE(menu!Y:Y)</f>
+        <v>163.83076923076922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="5">
+        <f>_xlfn.STDEV.S(menu!D:D)</f>
+        <v>240.26988649145849</v>
+      </c>
+      <c r="C3" s="5">
+        <f>_xlfn.STDEV.S(menu!E:E)</f>
+        <v>127.87591409643727</v>
+      </c>
+      <c r="D3" s="5">
+        <f>_xlfn.STDEV.S(menu!F:F)</f>
+        <v>14.9308374825362</v>
+      </c>
+      <c r="E3" s="5">
+        <f>_xlfn.STDEV.S(menu!G:G)</f>
+        <v>21.885198755367167</v>
+      </c>
+      <c r="F3" s="5">
+        <f>_xlfn.STDEV.S(menu!H:H)</f>
+        <v>10.836399161047307</v>
+      </c>
+      <c r="G3" s="5">
+        <f>_xlfn.STDEV.S(menu!I:I)</f>
+        <v>26.6392088057706</v>
+      </c>
+      <c r="H3" s="5">
+        <f>_xlfn.STDEV.S(menu!J:J)</f>
+        <v>3.1805392806613968</v>
+      </c>
+      <c r="I3" s="5">
+        <f>_xlfn.STDEV.S(menu!K:K)</f>
+        <v>87.269257471765499</v>
+      </c>
+      <c r="J3" s="5">
+        <f>_xlfn.STDEV.S(menu!L:L)</f>
+        <v>29.09165283933288</v>
+      </c>
+      <c r="K3" s="5">
+        <f>_xlfn.STDEV.S(menu!M:M)</f>
+        <v>577.02632298113349</v>
+      </c>
+      <c r="L3" s="5">
+        <f>_xlfn.STDEV.S(menu!N:N)</f>
+        <v>24.034953756539704</v>
+      </c>
+      <c r="M3" s="5">
+        <f>_xlfn.STDEV.S(menu!O:O)</f>
+        <v>28.252231685100472</v>
+      </c>
+      <c r="N3" s="5">
+        <f>_xlfn.STDEV.S(menu!P:P)</f>
+        <v>9.4195442606218531</v>
+      </c>
+      <c r="O3" s="5">
+        <f>_xlfn.STDEV.S(menu!Q:Q)</f>
+        <v>1.5677170847244275</v>
+      </c>
+      <c r="P3" s="5">
+        <f>_xlfn.STDEV.S(menu!R:R)</f>
+        <v>6.3070573470496027</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>_xlfn.STDEV.S(menu!S:S)</f>
+        <v>28.679796713553245</v>
+      </c>
+      <c r="R3" s="5">
+        <f>_xlfn.STDEV.S(menu!T:T)</f>
+        <v>11.426146163812895</v>
+      </c>
+      <c r="S3" s="5">
+        <f>_xlfn.STDEV.S(menu!U:U)</f>
+        <v>24.366380688779117</v>
+      </c>
+      <c r="T3" s="5">
+        <f>_xlfn.STDEV.S(menu!V:V)</f>
+        <v>26.345542321948891</v>
+      </c>
+      <c r="U3" s="5">
+        <f>_xlfn.STDEV.S(menu!W:W)</f>
+        <v>17.019953261651722</v>
+      </c>
+      <c r="V3" s="5">
+        <f>_xlfn.STDEV.S(menu!X:X)</f>
+        <v>8.7232632796059892</v>
+      </c>
+      <c r="W3" s="5">
+        <f>_xlfn.STDEV.S(menu!Y:Y)</f>
+        <v>115.94494356214908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="5">
+        <f>MEDIAN(menu!D:D)</f>
+        <v>340</v>
+      </c>
+      <c r="C4" s="5">
+        <f>MEDIAN(menu!E:E)</f>
+        <v>100</v>
+      </c>
+      <c r="D4" s="5">
+        <f>MEDIAN(menu!F:F)</f>
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <f>MEDIAN(menu!G:G)</f>
+        <v>17</v>
+      </c>
+      <c r="F4" s="5">
+        <f>MEDIAN(menu!H:H)</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="5">
+        <f>MEDIAN(menu!I:I)</f>
+        <v>24</v>
+      </c>
+      <c r="H4" s="5">
+        <f>MEDIAN(menu!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f>MEDIAN(menu!K:K)</f>
+        <v>35</v>
+      </c>
+      <c r="J4" s="5">
+        <f>MEDIAN(menu!L:L)</f>
+        <v>11</v>
+      </c>
+      <c r="K4" s="5">
+        <f>MEDIAN(menu!M:M)</f>
+        <v>190</v>
+      </c>
+      <c r="L4" s="5">
+        <f>MEDIAN(menu!N:N)</f>
+        <v>8</v>
+      </c>
+      <c r="M4" s="5">
+        <f>MEDIAN(menu!O:O)</f>
+        <v>44</v>
+      </c>
+      <c r="N4" s="5">
+        <f>MEDIAN(menu!P:P)</f>
+        <v>15</v>
+      </c>
+      <c r="O4" s="5">
+        <f>MEDIAN(menu!Q:Q)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <f>MEDIAN(menu!R:R)</f>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>MEDIAN(menu!S:S)</f>
+        <v>17.5</v>
+      </c>
+      <c r="R4" s="5">
+        <f>MEDIAN(menu!T:T)</f>
+        <v>12</v>
+      </c>
+      <c r="S4" s="5">
+        <f>MEDIAN(menu!U:U)</f>
+        <v>8</v>
+      </c>
+      <c r="T4" s="5">
+        <f>MEDIAN(menu!V:V)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <f>MEDIAN(menu!W:W)</f>
+        <v>20</v>
+      </c>
+      <c r="V4" s="5">
+        <f>MEDIAN(menu!X:X)</f>
+        <v>4</v>
+      </c>
+      <c r="W4" s="5">
+        <f>MEDIAN(menu!Y:Y)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!D:D,3)-_xlfn.QUARTILE.INC(menu!D:D,1)</f>
+        <v>290</v>
+      </c>
+      <c r="C5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!E:E,3)-_xlfn.QUARTILE.INC(menu!E:E,1)</f>
+        <v>180</v>
+      </c>
+      <c r="D5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!F:F,3)-_xlfn.QUARTILE.INC(menu!F:F,1)</f>
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!G:G,3)-_xlfn.QUARTILE.INC(menu!G:G,1)</f>
+        <v>31.25</v>
+      </c>
+      <c r="F5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!H:H,3)-_xlfn.QUARTILE.INC(menu!H:H,1)</f>
+        <v>11</v>
+      </c>
+      <c r="G5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!I:I,3)-_xlfn.QUARTILE.INC(menu!I:I,1)</f>
+        <v>43.25</v>
+      </c>
+      <c r="H5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!J:J,3)-_xlfn.QUARTILE.INC(menu!J:J,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!K:K,3)-_xlfn.QUARTILE.INC(menu!K:K,1)</f>
+        <v>60</v>
+      </c>
+      <c r="J5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!L:L,3)-_xlfn.QUARTILE.INC(menu!L:L,1)</f>
+        <v>19.25</v>
+      </c>
+      <c r="K5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!M:M,3)-_xlfn.QUARTILE.INC(menu!M:M,1)</f>
+        <v>757.5</v>
+      </c>
+      <c r="L5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!N:N,3)-_xlfn.QUARTILE.INC(menu!N:N,1)</f>
+        <v>31.5</v>
+      </c>
+      <c r="M5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!O:O,3)-_xlfn.QUARTILE.INC(menu!O:O,1)</f>
+        <v>30</v>
+      </c>
+      <c r="N5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!P:P,3)-_xlfn.QUARTILE.INC(menu!P:P,1)</f>
+        <v>10</v>
+      </c>
+      <c r="O5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!Q:Q,3)-_xlfn.QUARTILE.INC(menu!Q:Q,1)</f>
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!R:R,3)-_xlfn.QUARTILE.INC(menu!R:R,1)</f>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!S:S,3)-_xlfn.QUARTILE.INC(menu!S:S,1)</f>
+        <v>42.25</v>
+      </c>
+      <c r="R5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!T:T,3)-_xlfn.QUARTILE.INC(menu!T:T,1)</f>
+        <v>15</v>
+      </c>
+      <c r="S5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!U:U,3)-_xlfn.QUARTILE.INC(menu!U:U,1)</f>
+        <v>13</v>
+      </c>
+      <c r="T5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!V:V,3)-_xlfn.QUARTILE.INC(menu!V:V,1)</f>
+        <v>4</v>
+      </c>
+      <c r="U5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!W:W,3)-_xlfn.QUARTILE.INC(menu!W:W,1)</f>
+        <v>24</v>
+      </c>
+      <c r="V5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!X:X,3)-_xlfn.QUARTILE.INC(menu!X:X,1)</f>
+        <v>15</v>
+      </c>
+      <c r="W5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!Y:Y,3)-_xlfn.QUARTILE.INC(menu!Y:Y,1)</f>
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B25E0C-DB56-4C82-BE11-3060556B2430}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <f>AVERAGE(menu!4:4)</f>
+        <v>84.772727272727266</v>
+      </c>
+      <c r="C2" s="5">
+        <f>_xlfn.STDEV.S(menu!4:4)</f>
+        <v>179.20191639551973</v>
+      </c>
+      <c r="D2" s="5">
+        <f>MEDIAN(menu!4:4)</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!4:4,3)-_xlfn.QUARTILE.INC(menu!4:4,1)</f>
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <f>AVERAGE(menu!5:5)</f>
+        <v>116.63636363636364</v>
+      </c>
+      <c r="C3" s="5">
+        <f>_xlfn.STDEV.S(menu!5:5)</f>
+        <v>207.40609933965308</v>
+      </c>
+      <c r="D3" s="5">
+        <f>MEDIAN(menu!5:5)</f>
+        <v>29</v>
+      </c>
+      <c r="E3" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!5:5,3)-_xlfn.QUARTILE.INC(menu!5:5,1)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <f>AVERAGE(menu!6:6)</f>
+        <v>92</v>
+      </c>
+      <c r="C4" s="5">
+        <f>_xlfn.STDEV.S(menu!6:6)</f>
+        <v>200.20394363653043</v>
+      </c>
+      <c r="D4" s="5">
+        <f>MEDIAN(menu!6:6)</f>
+        <v>22</v>
+      </c>
+      <c r="E4" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!6:6,3)-_xlfn.QUARTILE.INC(menu!6:6,1)</f>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <f>AVERAGE(menu!7:7)</f>
+        <v>119.59090909090909</v>
+      </c>
+      <c r="C5" s="5">
+        <f>_xlfn.STDEV.S(menu!7:7)</f>
+        <v>223.14668656053067</v>
+      </c>
+      <c r="D5" s="5">
+        <f>MEDIAN(menu!7:7)</f>
+        <v>28</v>
+      </c>
+      <c r="E5" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!7:7,3)-_xlfn.QUARTILE.INC(menu!7:7,1)</f>
+        <v>75.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <f>AVERAGE(menu!8:8)</f>
+        <v>134.59090909090909</v>
+      </c>
+      <c r="C6" s="5">
+        <f>_xlfn.STDEV.S(menu!8:8)</f>
+        <v>287.32769728605285</v>
+      </c>
+      <c r="D6" s="5">
+        <f>MEDIAN(menu!8:8)</f>
+        <v>22.5</v>
+      </c>
+      <c r="E6" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!8:8,3)-_xlfn.QUARTILE.INC(menu!8:8,1)</f>
+        <v>67.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <f>AVERAGE(menu!9:9)</f>
+        <v>147.95454545454547</v>
+      </c>
+      <c r="C7" s="5">
+        <f>_xlfn.STDEV.S(menu!9:9)</f>
+        <v>312.7441487820397</v>
+      </c>
+      <c r="D7" s="5">
+        <f>MEDIAN(menu!9:9)</f>
+        <v>25</v>
+      </c>
+      <c r="E7" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!9:9,3)-_xlfn.QUARTILE.INC(menu!9:9,1)</f>
+        <v>65.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <f>AVERAGE(menu!10:10)</f>
+        <v>110.5</v>
+      </c>
+      <c r="C8" s="5">
+        <f>_xlfn.STDEV.S(menu!10:10)</f>
+        <v>282.50254950387699</v>
+      </c>
+      <c r="D8" s="5">
+        <f>MEDIAN(menu!10:10)</f>
+        <v>17.5</v>
+      </c>
+      <c r="E8" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!10:10,3)-_xlfn.QUARTILE.INC(menu!10:10,1)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <f>AVERAGE(menu!11:11)</f>
+        <v>123.86363636363636</v>
+      </c>
+      <c r="C9" s="5">
+        <f>_xlfn.STDEV.S(menu!11:11)</f>
+        <v>309.98775635645529</v>
+      </c>
+      <c r="D9" s="5">
+        <f>MEDIAN(menu!11:11)</f>
+        <v>17.5</v>
+      </c>
+      <c r="E9" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!11:11,3)-_xlfn.QUARTILE.INC(menu!11:11,1)</f>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <f>AVERAGE(menu!12:12)</f>
+        <v>102.81818181818181</v>
+      </c>
+      <c r="C10" s="5">
+        <f>_xlfn.STDEV.S(menu!12:12)</f>
+        <v>241.65533038047951</v>
+      </c>
+      <c r="D10" s="5">
+        <f>MEDIAN(menu!12:12)</f>
+        <v>13.5</v>
+      </c>
+      <c r="E10" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!12:12,3)-_xlfn.QUARTILE.INC(menu!12:12,1)</f>
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <f>AVERAGE(menu!13:13)</f>
+        <v>114.90909090909091</v>
+      </c>
+      <c r="C11" s="5">
+        <f>_xlfn.STDEV.S(menu!13:13)</f>
+        <v>267.08299211167429</v>
+      </c>
+      <c r="D11" s="5">
+        <f>MEDIAN(menu!13:13)</f>
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!13:13,3)-_xlfn.QUARTILE.INC(menu!13:13,1)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5">
+        <f>AVERAGE(menu!14:14)</f>
+        <v>133.59090909090909</v>
+      </c>
+      <c r="C12" s="5">
+        <f>_xlfn.STDEV.S(menu!14:14)</f>
+        <v>267.05495405412063</v>
+      </c>
+      <c r="D12" s="5">
+        <f>MEDIAN(menu!14:14)</f>
+        <v>26.5</v>
+      </c>
+      <c r="E12" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!14:14,3)-_xlfn.QUARTILE.INC(menu!14:14,1)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <f>AVERAGE(menu!15:15)</f>
+        <v>146</v>
+      </c>
+      <c r="C13" s="5">
+        <f>_xlfn.STDEV.S(menu!15:15)</f>
+        <v>292.68966174984399</v>
+      </c>
+      <c r="D13" s="5">
+        <f>MEDIAN(menu!15:15)</f>
+        <v>28.5</v>
+      </c>
+      <c r="E13" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!15:15,3)-_xlfn.QUARTILE.INC(menu!15:15,1)</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <f>AVERAGE(menu!16:16)</f>
+        <v>110.40909090909091</v>
+      </c>
+      <c r="C14" s="5">
+        <f>_xlfn.STDEV.S(menu!16:16)</f>
+        <v>262.95928692496597</v>
+      </c>
+      <c r="D14" s="5">
+        <f>MEDIAN(menu!16:16)</f>
+        <v>16.5</v>
+      </c>
+      <c r="E14" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!16:16,3)-_xlfn.QUARTILE.INC(menu!16:16,1)</f>
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <f>AVERAGE(menu!17:17)</f>
+        <v>122.45454545454545</v>
+      </c>
+      <c r="C15" s="5">
+        <f>_xlfn.STDEV.S(menu!17:17)</f>
+        <v>288.71847010254641</v>
+      </c>
+      <c r="D15" s="5">
+        <f>MEDIAN(menu!17:17)</f>
+        <v>16.5</v>
+      </c>
+      <c r="E15" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!17:17,3)-_xlfn.QUARTILE.INC(menu!17:17,1)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <f>AVERAGE(menu!18:18)</f>
+        <v>101.77272727272727</v>
+      </c>
+      <c r="C16" s="5">
+        <f>_xlfn.STDEV.S(menu!18:18)</f>
+        <v>258.59454047530926</v>
+      </c>
+      <c r="D16" s="5">
+        <f>MEDIAN(menu!18:18)</f>
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!18:18,3)-_xlfn.QUARTILE.INC(menu!18:18,1)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <f>AVERAGE(menu!19:19)</f>
+        <v>114.31818181818181</v>
+      </c>
+      <c r="C17" s="5">
+        <f>_xlfn.STDEV.S(menu!19:19)</f>
+        <v>284.29886795473936</v>
+      </c>
+      <c r="D17" s="5">
+        <f>MEDIAN(menu!19:19)</f>
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!19:19,3)-_xlfn.QUARTILE.INC(menu!19:19,1)</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5">
+        <f>AVERAGE(menu!20:20)</f>
+        <v>155.22727272727272</v>
+      </c>
+      <c r="C18" s="5">
+        <f>_xlfn.STDEV.S(menu!20:20)</f>
+        <v>326.55196214796194</v>
+      </c>
+      <c r="D18" s="5">
+        <f>MEDIAN(menu!20:20)</f>
+        <v>28.5</v>
+      </c>
+      <c r="E18" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!20:20,3)-_xlfn.QUARTILE.INC(menu!20:20,1)</f>
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <f>AVERAGE(menu!21:21)</f>
+        <v>129.45454545454547</v>
+      </c>
+      <c r="C19" s="5">
+        <f>_xlfn.STDEV.S(menu!21:21)</f>
+        <v>276.59282903501509</v>
+      </c>
+      <c r="D19" s="5">
+        <f>MEDIAN(menu!21:21)</f>
+        <v>20.5</v>
+      </c>
+      <c r="E19" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!21:21,3)-_xlfn.QUARTILE.INC(menu!21:21,1)</f>
+        <v>64.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <f>AVERAGE(menu!22:22)</f>
+        <v>104.45454545454545</v>
+      </c>
+      <c r="C20" s="5">
+        <f>_xlfn.STDEV.S(menu!22:22)</f>
+        <v>271.26190599680905</v>
+      </c>
+      <c r="D20" s="5">
+        <f>MEDIAN(menu!22:22)</f>
+        <v>16</v>
+      </c>
+      <c r="E20" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!22:22,3)-_xlfn.QUARTILE.INC(menu!22:22,1)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5">
+        <f>AVERAGE(menu!23:23)</f>
+        <v>96.590909090909093</v>
+      </c>
+      <c r="C21" s="5">
+        <f>_xlfn.STDEV.S(menu!23:23)</f>
+        <v>229.89058662368456</v>
+      </c>
+      <c r="D21" s="5">
+        <f>MEDIAN(menu!23:23)</f>
+        <v>15</v>
+      </c>
+      <c r="E21" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!23:23,3)-_xlfn.QUARTILE.INC(menu!23:23,1)</f>
+        <v>34.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5">
+        <f>AVERAGE(menu!24:24)</f>
+        <v>144.95454545454547</v>
+      </c>
+      <c r="C22" s="5">
+        <f>_xlfn.STDEV.S(menu!24:24)</f>
+        <v>297.42265537570592</v>
+      </c>
+      <c r="D22" s="5">
+        <f>MEDIAN(menu!24:24)</f>
+        <v>25.5</v>
+      </c>
+      <c r="E22" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!24:24,3)-_xlfn.QUARTILE.INC(menu!24:24,1)</f>
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" s="5">
+        <f>AVERAGE(menu!25:25)</f>
+        <v>120.90909090909091</v>
+      </c>
+      <c r="C23" s="5">
+        <f>_xlfn.STDEV.S(menu!25:25)</f>
+        <v>291.67593058881027</v>
+      </c>
+      <c r="D23" s="5">
+        <f>MEDIAN(menu!25:25)</f>
+        <v>20.5</v>
+      </c>
+      <c r="E23" s="5">
+        <f>_xlfn.QUARTILE.INC(menu!25:25,3)-_xlfn.QUARTILE.INC(menu!25:25,1)</f>
+        <v>41.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/excel/files/menu.xlsx
+++ b/excel/files/menu.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis/data_analysis/excel/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{740024A6-1B65-4017-A754-DBB94AC48CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C05F73-2E6E-4820-90D1-7E57E5B8E23B}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{740024A6-1B65-4017-A754-DBB94AC48CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BF2D93-5559-4432-A924-72201B63BCBD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{50F61F0E-0366-4A0C-BD0F-19332FD87CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="2" r:id="rId1"/>
     <sheet name="Analysis" sheetId="1" r:id="rId2"/>
-    <sheet name="Analysis2" sheetId="3" r:id="rId3"/>
+    <sheet name="Analysis_transposed" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">menu!$A$1:$X$261</definedName>
@@ -48,8 +48,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="406">
   <si>
     <t>Category</t>
   </si>
@@ -1273,8 +1295,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1326,13 +1356,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22135,8 +22166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE09BED9-E9B2-4C7E-8033-B40EBF77FAED}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:W5"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22667,11 +22698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B25E0C-DB56-4C82-BE11-3060556B2430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A898A898-C755-4A4D-BF05-C807C723F72C}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22680,486 +22711,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>403</v>
+      <c r="A1" s="6" t="str" cm="1">
+        <f t="array" ref="A1:E23">TRANSPOSE(Analysis!A1:W5)</f>
+        <v>Calculation/Column</v>
+      </c>
+      <c r="B1" s="6" t="str">
+        <v>Mean</v>
+      </c>
+      <c r="C1" s="6" t="str">
+        <v>SD</v>
+      </c>
+      <c r="D1" s="6" t="str">
+        <v>Median</v>
+      </c>
+      <c r="E1" s="6" t="str">
+        <v>IQR</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="str">
+        <v>Calories</v>
+      </c>
+      <c r="B2">
+        <v>368.26923076923077</v>
+      </c>
+      <c r="C2">
+        <v>240.26988649145849</v>
+      </c>
+      <c r="D2">
+        <v>340</v>
+      </c>
+      <c r="E2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <v>Calories from Fat</v>
+      </c>
+      <c r="B3">
+        <v>127.09615384615384</v>
+      </c>
+      <c r="C3">
+        <v>127.87591409643727</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <v>Total Fat</v>
+      </c>
+      <c r="B4">
+        <v>16.346153846153847</v>
+      </c>
+      <c r="C4">
+        <v>14.9308374825362</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <v>Total Fat (% Daily Value)</v>
+      </c>
+      <c r="B5">
+        <v>21.815384615384616</v>
+      </c>
+      <c r="C5">
+        <v>21.885198755367167</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <v>Saturated Fat</v>
+      </c>
+      <c r="B6">
+        <v>9.6423076923076927</v>
+      </c>
+      <c r="C6">
+        <v>10.836399161047307</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <v>Saturated Fat (% Daily Value)</v>
+      </c>
+      <c r="B7">
+        <v>29.965384615384615</v>
+      </c>
+      <c r="C7">
+        <v>26.6392088057706</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>43.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <v>Trans Fat</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3.1805392806613968</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <v>Cholesterol</v>
+      </c>
+      <c r="B9">
+        <v>54.942307692307693</v>
+      </c>
+      <c r="C9">
+        <v>87.269257471765499</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <v>Cholesterol (% Daily Value)</v>
+      </c>
+      <c r="B10">
+        <v>18.392307692307693</v>
+      </c>
+      <c r="C10">
+        <v>29.09165283933288</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <v>Sodium</v>
+      </c>
+      <c r="B11">
+        <v>495.75</v>
+      </c>
+      <c r="C11">
+        <v>577.02632298113349</v>
+      </c>
+      <c r="D11">
+        <v>190</v>
+      </c>
+      <c r="E11">
+        <v>757.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <v>Sodium (% Daily Value)</v>
+      </c>
+      <c r="B12">
+        <v>20.676923076923078</v>
+      </c>
+      <c r="C12">
+        <v>24.034953756539704</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <v>Carbohydrates</v>
+      </c>
+      <c r="B13">
+        <v>47.346153846153847</v>
+      </c>
+      <c r="C13">
+        <v>28.252231685100472</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <v>Carbohydrates (% Daily Value)</v>
+      </c>
+      <c r="B14">
+        <v>15.780769230769231</v>
+      </c>
+      <c r="C14">
+        <v>9.4195442606218531</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <v>Dietary Fiber</v>
+      </c>
+      <c r="B15">
+        <v>1.6307692307692307</v>
+      </c>
+      <c r="C15">
+        <v>1.5677170847244275</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
-        <f>AVERAGE(menu!4:4)</f>
-        <v>84.772727272727266</v>
-      </c>
-      <c r="C2" s="5">
-        <f>_xlfn.STDEV.S(menu!4:4)</f>
-        <v>179.20191639551973</v>
-      </c>
-      <c r="D2" s="5">
-        <f>MEDIAN(menu!4:4)</f>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <v>Dietary Fiber (% Daily Value)</v>
+      </c>
+      <c r="B16">
+        <v>6.5307692307692307</v>
+      </c>
+      <c r="C16">
+        <v>6.3070573470496027</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <v>Sugars</v>
+      </c>
+      <c r="B17">
+        <v>29.423076923076923</v>
+      </c>
+      <c r="C17">
+        <v>28.679796713553245</v>
+      </c>
+      <c r="D17">
+        <v>17.5</v>
+      </c>
+      <c r="E17">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <v>Protein</v>
+      </c>
+      <c r="B18">
+        <v>13.338461538461539</v>
+      </c>
+      <c r="C18">
+        <v>11.426146163812895</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <v>Vitamin A (% Daily Value)</v>
+      </c>
+      <c r="B19">
+        <v>13.426923076923076</v>
+      </c>
+      <c r="C19">
+        <v>24.366380688779117</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <v>Vitamin C (% Daily Value)</v>
+      </c>
+      <c r="B20">
+        <v>8.5346153846153854</v>
+      </c>
+      <c r="C20">
+        <v>26.345542321948891</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <v>Calcium (% Daily Value)</v>
+      </c>
+      <c r="B21">
+        <v>20.973076923076924</v>
+      </c>
+      <c r="C21">
+        <v>17.019953261651722</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="E2" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!4:4,3)-_xlfn.QUARTILE.INC(menu!4:4,1)</f>
-        <v>31.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="E21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <v>Iron (% Daily Value)</v>
+      </c>
+      <c r="B22">
+        <v>7.7346153846153847</v>
+      </c>
+      <c r="C22">
+        <v>8.7232632796059892</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <f>AVERAGE(menu!5:5)</f>
-        <v>116.63636363636364</v>
-      </c>
-      <c r="C3" s="5">
-        <f>_xlfn.STDEV.S(menu!5:5)</f>
-        <v>207.40609933965308</v>
-      </c>
-      <c r="D3" s="5">
-        <f>MEDIAN(menu!5:5)</f>
-        <v>29</v>
-      </c>
-      <c r="E3" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!5:5,3)-_xlfn.QUARTILE.INC(menu!5:5,1)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <f>AVERAGE(menu!6:6)</f>
-        <v>92</v>
-      </c>
-      <c r="C4" s="5">
-        <f>_xlfn.STDEV.S(menu!6:6)</f>
-        <v>200.20394363653043</v>
-      </c>
-      <c r="D4" s="5">
-        <f>MEDIAN(menu!6:6)</f>
-        <v>22</v>
-      </c>
-      <c r="E4" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!6:6,3)-_xlfn.QUARTILE.INC(menu!6:6,1)</f>
-        <v>32.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
-        <f>AVERAGE(menu!7:7)</f>
-        <v>119.59090909090909</v>
-      </c>
-      <c r="C5" s="5">
-        <f>_xlfn.STDEV.S(menu!7:7)</f>
-        <v>223.14668656053067</v>
-      </c>
-      <c r="D5" s="5">
-        <f>MEDIAN(menu!7:7)</f>
-        <v>28</v>
-      </c>
-      <c r="E5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!7:7,3)-_xlfn.QUARTILE.INC(menu!7:7,1)</f>
-        <v>75.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <f>AVERAGE(menu!8:8)</f>
-        <v>134.59090909090909</v>
-      </c>
-      <c r="C6" s="5">
-        <f>_xlfn.STDEV.S(menu!8:8)</f>
-        <v>287.32769728605285</v>
-      </c>
-      <c r="D6" s="5">
-        <f>MEDIAN(menu!8:8)</f>
-        <v>22.5</v>
-      </c>
-      <c r="E6" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!8:8,3)-_xlfn.QUARTILE.INC(menu!8:8,1)</f>
-        <v>67.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
-        <f>AVERAGE(menu!9:9)</f>
-        <v>147.95454545454547</v>
-      </c>
-      <c r="C7" s="5">
-        <f>_xlfn.STDEV.S(menu!9:9)</f>
-        <v>312.7441487820397</v>
-      </c>
-      <c r="D7" s="5">
-        <f>MEDIAN(menu!9:9)</f>
-        <v>25</v>
-      </c>
-      <c r="E7" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!9:9,3)-_xlfn.QUARTILE.INC(menu!9:9,1)</f>
-        <v>65.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
-        <f>AVERAGE(menu!10:10)</f>
-        <v>110.5</v>
-      </c>
-      <c r="C8" s="5">
-        <f>_xlfn.STDEV.S(menu!10:10)</f>
-        <v>282.50254950387699</v>
-      </c>
-      <c r="D8" s="5">
-        <f>MEDIAN(menu!10:10)</f>
-        <v>17.5</v>
-      </c>
-      <c r="E8" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!10:10,3)-_xlfn.QUARTILE.INC(menu!10:10,1)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
-        <f>AVERAGE(menu!11:11)</f>
-        <v>123.86363636363636</v>
-      </c>
-      <c r="C9" s="5">
-        <f>_xlfn.STDEV.S(menu!11:11)</f>
-        <v>309.98775635645529</v>
-      </c>
-      <c r="D9" s="5">
-        <f>MEDIAN(menu!11:11)</f>
-        <v>17.5</v>
-      </c>
-      <c r="E9" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!11:11,3)-_xlfn.QUARTILE.INC(menu!11:11,1)</f>
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5">
-        <f>AVERAGE(menu!12:12)</f>
-        <v>102.81818181818181</v>
-      </c>
-      <c r="C10" s="5">
-        <f>_xlfn.STDEV.S(menu!12:12)</f>
-        <v>241.65533038047951</v>
-      </c>
-      <c r="D10" s="5">
-        <f>MEDIAN(menu!12:12)</f>
-        <v>13.5</v>
-      </c>
-      <c r="E10" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!12:12,3)-_xlfn.QUARTILE.INC(menu!12:12,1)</f>
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
-        <f>AVERAGE(menu!13:13)</f>
-        <v>114.90909090909091</v>
-      </c>
-      <c r="C11" s="5">
-        <f>_xlfn.STDEV.S(menu!13:13)</f>
-        <v>267.08299211167429</v>
-      </c>
-      <c r="D11" s="5">
-        <f>MEDIAN(menu!13:13)</f>
-        <v>14</v>
-      </c>
-      <c r="E11" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!13:13,3)-_xlfn.QUARTILE.INC(menu!13:13,1)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <f>AVERAGE(menu!14:14)</f>
-        <v>133.59090909090909</v>
-      </c>
-      <c r="C12" s="5">
-        <f>_xlfn.STDEV.S(menu!14:14)</f>
-        <v>267.05495405412063</v>
-      </c>
-      <c r="D12" s="5">
-        <f>MEDIAN(menu!14:14)</f>
-        <v>26.5</v>
-      </c>
-      <c r="E12" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!14:14,3)-_xlfn.QUARTILE.INC(menu!14:14,1)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5">
-        <f>AVERAGE(menu!15:15)</f>
-        <v>146</v>
-      </c>
-      <c r="C13" s="5">
-        <f>_xlfn.STDEV.S(menu!15:15)</f>
-        <v>292.68966174984399</v>
-      </c>
-      <c r="D13" s="5">
-        <f>MEDIAN(menu!15:15)</f>
-        <v>28.5</v>
-      </c>
-      <c r="E13" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!15:15,3)-_xlfn.QUARTILE.INC(menu!15:15,1)</f>
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="E22">
         <v>15</v>
       </c>
-      <c r="B14" s="5">
-        <f>AVERAGE(menu!16:16)</f>
-        <v>110.40909090909091</v>
-      </c>
-      <c r="C14" s="5">
-        <f>_xlfn.STDEV.S(menu!16:16)</f>
-        <v>262.95928692496597</v>
-      </c>
-      <c r="D14" s="5">
-        <f>MEDIAN(menu!16:16)</f>
-        <v>16.5</v>
-      </c>
-      <c r="E14" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!16:16,3)-_xlfn.QUARTILE.INC(menu!16:16,1)</f>
-        <v>40.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
-        <f>AVERAGE(menu!17:17)</f>
-        <v>122.45454545454545</v>
-      </c>
-      <c r="C15" s="5">
-        <f>_xlfn.STDEV.S(menu!17:17)</f>
-        <v>288.71847010254641</v>
-      </c>
-      <c r="D15" s="5">
-        <f>MEDIAN(menu!17:17)</f>
-        <v>16.5</v>
-      </c>
-      <c r="E15" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!17:17,3)-_xlfn.QUARTILE.INC(menu!17:17,1)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5">
-        <f>AVERAGE(menu!18:18)</f>
-        <v>101.77272727272727</v>
-      </c>
-      <c r="C16" s="5">
-        <f>_xlfn.STDEV.S(menu!18:18)</f>
-        <v>258.59454047530926</v>
-      </c>
-      <c r="D16" s="5">
-        <f>MEDIAN(menu!18:18)</f>
-        <v>16</v>
-      </c>
-      <c r="E16" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!18:18,3)-_xlfn.QUARTILE.INC(menu!18:18,1)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <f>AVERAGE(menu!19:19)</f>
-        <v>114.31818181818181</v>
-      </c>
-      <c r="C17" s="5">
-        <f>_xlfn.STDEV.S(menu!19:19)</f>
-        <v>284.29886795473936</v>
-      </c>
-      <c r="D17" s="5">
-        <f>MEDIAN(menu!19:19)</f>
-        <v>16</v>
-      </c>
-      <c r="E17" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!19:19,3)-_xlfn.QUARTILE.INC(menu!19:19,1)</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5">
-        <f>AVERAGE(menu!20:20)</f>
-        <v>155.22727272727272</v>
-      </c>
-      <c r="C18" s="5">
-        <f>_xlfn.STDEV.S(menu!20:20)</f>
-        <v>326.55196214796194</v>
-      </c>
-      <c r="D18" s="5">
-        <f>MEDIAN(menu!20:20)</f>
-        <v>28.5</v>
-      </c>
-      <c r="E18" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!20:20,3)-_xlfn.QUARTILE.INC(menu!20:20,1)</f>
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <f>AVERAGE(menu!21:21)</f>
-        <v>129.45454545454547</v>
-      </c>
-      <c r="C19" s="5">
-        <f>_xlfn.STDEV.S(menu!21:21)</f>
-        <v>276.59282903501509</v>
-      </c>
-      <c r="D19" s="5">
-        <f>MEDIAN(menu!21:21)</f>
-        <v>20.5</v>
-      </c>
-      <c r="E19" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!21:21,3)-_xlfn.QUARTILE.INC(menu!21:21,1)</f>
-        <v>64.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5">
-        <f>AVERAGE(menu!22:22)</f>
-        <v>104.45454545454545</v>
-      </c>
-      <c r="C20" s="5">
-        <f>_xlfn.STDEV.S(menu!22:22)</f>
-        <v>271.26190599680905</v>
-      </c>
-      <c r="D20" s="5">
-        <f>MEDIAN(menu!22:22)</f>
-        <v>16</v>
-      </c>
-      <c r="E20" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!22:22,3)-_xlfn.QUARTILE.INC(menu!22:22,1)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <f>AVERAGE(menu!23:23)</f>
-        <v>96.590909090909093</v>
-      </c>
-      <c r="C21" s="5">
-        <f>_xlfn.STDEV.S(menu!23:23)</f>
-        <v>229.89058662368456</v>
-      </c>
-      <c r="D21" s="5">
-        <f>MEDIAN(menu!23:23)</f>
-        <v>15</v>
-      </c>
-      <c r="E21" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!23:23,3)-_xlfn.QUARTILE.INC(menu!23:23,1)</f>
-        <v>34.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5">
-        <f>AVERAGE(menu!24:24)</f>
-        <v>144.95454545454547</v>
-      </c>
-      <c r="C22" s="5">
-        <f>_xlfn.STDEV.S(menu!24:24)</f>
-        <v>297.42265537570592</v>
-      </c>
-      <c r="D22" s="5">
-        <f>MEDIAN(menu!24:24)</f>
-        <v>25.5</v>
-      </c>
-      <c r="E22" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!24:24,3)-_xlfn.QUARTILE.INC(menu!24:24,1)</f>
-        <v>69.25</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B23" s="5">
-        <f>AVERAGE(menu!25:25)</f>
-        <v>120.90909090909091</v>
-      </c>
-      <c r="C23" s="5">
-        <f>_xlfn.STDEV.S(menu!25:25)</f>
-        <v>291.67593058881027</v>
-      </c>
-      <c r="D23" s="5">
-        <f>MEDIAN(menu!25:25)</f>
-        <v>20.5</v>
-      </c>
-      <c r="E23" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!25:25,3)-_xlfn.QUARTILE.INC(menu!25:25,1)</f>
-        <v>41.5</v>
+      <c r="A23" t="str">
+        <v>Total Percentage</v>
+      </c>
+      <c r="B23">
+        <v>163.83076923076922</v>
+      </c>
+      <c r="C23">
+        <v>115.94494356214908</v>
+      </c>
+      <c r="D23">
+        <v>145</v>
+      </c>
+      <c r="E23">
+        <v>153.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
